--- a/fake_results/Dimensiones_lenguado_errores_detallado.xlsx
+++ b/fake_results/Dimensiones_lenguado_errores_detallado.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Workspaces\GitHub\FLATCLASS\fake_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C4357B-F006-40FF-983D-9D29A80AF43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A541491-FCCE-4F92-AAAE-ADE046731C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3528" yWindow="1956" windowWidth="46080" windowHeight="23076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1524" yWindow="660" windowWidth="40344" windowHeight="21504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -69,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,13 +105,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -403,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,9 +444,11 @@
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="28.109375" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +470,9 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.46</v>
       </c>
@@ -465,7 +495,7 @@
         <v>-0.23100000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.08</v>
       </c>
@@ -488,7 +518,7 @@
         <v>-0.27300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.67</v>
       </c>
@@ -511,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.98</v>
       </c>
@@ -534,7 +564,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.93</v>
       </c>
@@ -557,7 +587,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.89</v>
       </c>
@@ -580,7 +610,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.6</v>
       </c>
@@ -603,7 +633,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.9</v>
       </c>
@@ -626,7 +656,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.59</v>
       </c>
@@ -649,7 +679,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.67</v>
       </c>
@@ -672,7 +702,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.91</v>
       </c>
@@ -695,7 +725,7 @@
         <v>-0.36799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.94</v>
       </c>
@@ -718,7 +748,7 @@
         <v>-0.36799999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.08</v>
       </c>
@@ -741,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.72</v>
       </c>
@@ -764,7 +794,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.77</v>
       </c>
